--- a/vivadoHLS2019/conv_1/conv_1.xlsx
+++ b/vivadoHLS2019/conv_1/conv_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenq\MAG\code\CNN-FPGA\vivadoHLS2019\conv_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7E0BD-A231-4D3A-A838-E9EAE7013BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB5A6E4-1B8C-4F2A-970A-9C6468E0133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22046" yWindow="-9" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,11 +624,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1869,602 +1869,678 @@
         <v>20111</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="12.75">
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+    <row r="54" spans="2:15" ht="15.75" customHeight="1">
+      <c r="C54">
+        <f t="shared" ref="C54:D54" si="3">SUM(C48,C49,C50/2,C51,C52)</f>
+        <v>1845.5</v>
+      </c>
+      <c r="D54" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54">
+        <f>SUM(E48,E49,E50/2,E51,E52)</f>
+        <v>1982</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:O54" si="4">SUM(F48,F49,F50/2,F51,F52)</f>
+        <v>39599</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>5813</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>2614.5</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>2018.5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>1858.5</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>2132</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>2347.5</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>17571</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>16024.5</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="4"/>
+        <v>17218.5</v>
+      </c>
     </row>
     <row r="55" spans="2:15" ht="12.75">
-      <c r="B55" s="3" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:15" ht="12.75">
+      <c r="B56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5" t="e">
+      <c r="C56" s="4"/>
+      <c r="D56" s="5" t="e">
         <f>ROUND((C45-D45)/C45,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <f>ROUND((C45-E45)/C45,5)</f>
         <v>0.55903000000000003</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <f>ROUND((C45-F45)/C45,5)</f>
         <v>0.99400999999999995</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G56" s="5">
         <f>ROUND((C45-G45)/C45,5)</f>
         <v>0.89709000000000005</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H56" s="5">
         <f>ROUND((C45-H45)/C45,5)</f>
         <v>0.60313000000000005</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I56" s="5">
         <f>ROUND((C45-I45)/C45,5)</f>
         <v>0.55903000000000003</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J56" s="5">
         <f>ROUND((C45-J45)/C45,5)</f>
         <v>0.39687</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K56" s="5">
         <f>ROUND((C45-K45)/C45,5)</f>
         <v>8.8190000000000004E-2</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L56" s="5">
         <f>ROUND((C45-L45)/C45,5)</f>
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M56" s="5">
         <f>ROUND((C45-M45)/C45,5)</f>
         <v>1.4930000000000001E-2</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N56" s="5">
         <f>ROUND((C45-N45)/C45,5)</f>
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O56" s="6">
         <f>ROUND((C45-O45)/C45,5)</f>
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="12.75">
-      <c r="B56" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="O56" s="9"/>
-    </row>
     <row r="57" spans="2:15" ht="12.75">
       <c r="B57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="2:15" ht="12.75">
+      <c r="B58" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="E57" s="1">
+      <c r="C58" s="8"/>
+      <c r="E58" s="1">
         <f>ROUND((E48-C48)/C48,2)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F58" s="1">
         <f>ROUND((F48-C48)/C48,2)</f>
         <v>-1</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G58" s="1">
         <f>ROUND((G48-C48)/C48,2)</f>
         <v>2.33</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H58" s="1">
         <f>ROUND((H48-C48)/C48,2)</f>
         <v>0.33</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I58" s="1">
         <f>ROUND((I48-C48)/C48,2)</f>
         <v>-0.33</v>
       </c>
-      <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="2:15" ht="12.75">
-      <c r="B58" s="7" t="s">
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="2:15" ht="12.75">
+      <c r="B59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="1" t="e">
+      <c r="C59" s="8"/>
+      <c r="D59" s="1" t="e">
         <f>ROUND((D49-C49)/C49,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E59" s="1">
         <f>ROUND((E49-C49)/C49,2)</f>
         <v>0.2</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F59" s="1">
         <f>ROUND((F49-C49)/C49,2)</f>
         <v>21</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G59" s="1">
         <f>ROUND((G49-C49)/C49,2)</f>
         <v>1.2</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H59" s="1">
         <f>ROUND((H49-C49)/C49,2)</f>
         <v>0.2</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I59" s="1">
         <f>ROUND((I49-C49)/C49,2)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J59" s="1">
         <f>ROUND((J49-C49)/C49,2)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K59" s="1">
         <f>ROUND((K49-C49)/C49,2)</f>
         <v>0</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L59" s="1">
         <f>ROUND((L49-C49)/C49,2)</f>
         <v>0</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M59" s="1">
         <f>ROUND((M49-C49)/C49,2)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="9">
+      <c r="N59" s="1"/>
+      <c r="O59" s="9">
         <f>ROUND((O49-C49)/C49,2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="12.75">
-      <c r="B59" s="7" t="s">
+    <row r="60" spans="2:15" ht="12.75">
+      <c r="B60" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="1" t="e">
+      <c r="C60" s="8"/>
+      <c r="D60" s="1" t="e">
         <f>ROUND((D50-C50)/C50,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E60" s="1">
         <f>ROUND((E50-C50)/C50,2)</f>
         <v>-0.08</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F60" s="1">
         <f>ROUND((F50-C50)/C50,2)</f>
         <v>32.26</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G60" s="1">
         <f>ROUND((G50-C50)/C50,2)</f>
         <v>4.42</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="1">
         <f>ROUND((H50-C50)/C50,2)</f>
         <v>0.74</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I60" s="1">
         <f>ROUND((I50-C50)/C50,2)</f>
         <v>0.18</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <f>ROUND((J50-C50)/C50,2)</f>
         <v>-0.01</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K60" s="1">
         <f>ROUND((K50-C50)/C50,2)</f>
         <v>0.11</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <f>ROUND((L50-C50)/C50,2)</f>
         <v>0.27</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M60" s="1">
         <f>ROUND((M50-C50)/C50,2)</f>
         <v>9.66</v>
       </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="9">
+      <c r="N60" s="1"/>
+      <c r="O60" s="9">
         <f>ROUND((O50-C50)/C50,2)</f>
         <v>8.41</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="12.75">
-      <c r="B60" s="7" t="s">
+    <row r="61" spans="2:15" ht="12.75">
+      <c r="B61" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="1" t="e">
+      <c r="C61" s="8"/>
+      <c r="D61" s="1" t="e">
         <f>ROUND((D51-C51)/C51,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <f>ROUND((E51-C51)/C51,2)</f>
         <v>0.11</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <f>ROUND((F51-C51)/C51,2)</f>
         <v>18.13</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G61" s="1">
         <f>ROUND((G51-C51)/C51,2)</f>
         <v>1.7</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H61" s="1">
         <f>ROUND((H51-C51)/C51,2)</f>
         <v>0.35</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I61" s="1">
         <f>ROUND((I51-C51)/C51,2)</f>
         <v>0.08</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J61" s="1">
         <f>ROUND((J51-C51)/C51,2)</f>
         <v>0.01</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K61" s="1">
         <f>ROUND((K51-C51)/C51,2)</f>
         <v>0.16</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L61" s="1">
         <f>ROUND((L51-C51)/C51,2)</f>
         <v>0.27</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M61" s="1">
         <f>ROUND((M51-C51)/C51,2)</f>
         <v>8.34</v>
       </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="9">
+      <c r="N61" s="1"/>
+      <c r="O61" s="9">
         <f>ROUND((O51-C51)/C51,2)</f>
         <v>8.36</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="12.75">
-      <c r="B61" s="10" t="s">
+    <row r="62" spans="2:15" ht="12.75">
+      <c r="B62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12">
-        <v>0</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="13"/>
-    </row>
-    <row r="62" spans="2:15" ht="12.75">
-      <c r="E62" s="1">
+      <c r="C62" s="11"/>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="13"/>
+    </row>
+    <row r="63" spans="2:15" ht="12.75">
+      <c r="E63" s="1">
         <f>(E53-C53)/C53</f>
         <v>5.1555968416163493E-2</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F63" s="1">
         <f>(F53-C53)/C53</f>
         <v>22.142127264282397</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G63" s="1">
         <f>(G53-C53)/C53</f>
         <v>2.4746864839758476</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H63" s="1">
         <f>(H53-C53)/C53</f>
         <v>0.46353924756154202</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I63" s="1">
         <f>(I53-C53)/C53</f>
         <v>0.10636321411983279</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J63" s="1">
         <f>(J53-C53)/C53</f>
         <v>4.1802136553646075E-3</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K63" s="1">
         <f>(K53-C53)/C53</f>
         <v>0.14862981885740828</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L63" s="1">
         <f>(L53-C53)/C53</f>
         <v>0.27171388759869947</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M63" s="1">
         <f>(M53-C53)/C53</f>
         <v>8.6841616349280066</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N63" s="1">
         <f>(N53-C53)/C53</f>
         <v>7.7784486762656755</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O63" s="1">
         <f>(O53-C53)/C53</f>
         <v>8.3409196470041795</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="12.75">
-      <c r="E63" s="1">
-        <f>(E62*100)/(E55*100)</f>
+    <row r="64" spans="2:15" ht="12.75">
+      <c r="E64" s="1">
+        <f>(E63*100)/(E56*100)</f>
         <v>9.2223974413114654E-2</v>
       </c>
-      <c r="F63" s="1">
-        <f>(F62*100)/(F55*100)</f>
+      <c r="F64" s="1">
+        <f>(F63*100)/(F56*100)</f>
         <v>22.275557855838873</v>
       </c>
-      <c r="G63" s="1">
-        <f t="shared" ref="G63:O63" si="3">(G62*100)/(G55*100)</f>
+      <c r="G64" s="1">
+        <f t="shared" ref="G64:O64" si="5">(G63*100)/(G56*100)</f>
         <v>2.7585710285209371</v>
       </c>
-      <c r="H63" s="1">
-        <f t="shared" si="3"/>
+      <c r="H64" s="1">
+        <f t="shared" si="5"/>
         <v>0.76855611155396342</v>
       </c>
-      <c r="I63" s="1">
-        <f t="shared" si="3"/>
+      <c r="I64" s="1">
+        <f t="shared" si="5"/>
         <v>0.19026387514056989</v>
       </c>
-      <c r="J63" s="1">
-        <f t="shared" si="3"/>
+      <c r="J64" s="1">
+        <f t="shared" si="5"/>
         <v>1.0532954507432177E-2</v>
       </c>
-      <c r="K63" s="1">
-        <f t="shared" si="3"/>
+      <c r="K64" s="1">
+        <f t="shared" si="5"/>
         <v>1.6853364197460967</v>
       </c>
-      <c r="L63" s="1">
-        <f t="shared" si="3"/>
+      <c r="L64" s="1">
+        <f t="shared" si="5"/>
         <v>9.2419689659421582</v>
       </c>
-      <c r="M63" s="1">
-        <f t="shared" si="3"/>
+      <c r="M64" s="1">
+        <f t="shared" si="5"/>
         <v>581.65851540040228</v>
       </c>
-      <c r="N63" s="1">
-        <f t="shared" si="3"/>
+      <c r="N64" s="1">
+        <f t="shared" si="5"/>
         <v>32410.202817773647</v>
       </c>
-      <c r="O63" s="1">
-        <f t="shared" si="3"/>
+      <c r="O64" s="1">
+        <f t="shared" si="5"/>
         <v>834091.96470041794</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="12.75">
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" ht="12.75">
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="65" spans="2:15" ht="12.75">
       <c r="E65" s="1"/>
-      <c r="G65" s="1" t="s">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="2:15" ht="12.75">
+      <c r="E66" s="1">
+        <f>(E54-C54)/C54</f>
+        <v>7.3963695475480901E-2</v>
+      </c>
+      <c r="F66" s="1">
+        <f>(F54-C54)/C54</f>
+        <v>20.45705770793823</v>
+      </c>
+      <c r="G66" s="1">
+        <f>(G54-C54)/C54</f>
+        <v>2.1498238959631535</v>
+      </c>
+      <c r="H66" s="1">
+        <f>(H54-C54)/C54</f>
+        <v>0.41668924410728797</v>
+      </c>
+      <c r="I66" s="1">
+        <f>(I54-C54)/C54</f>
+        <v>9.3741533459767004E-2</v>
+      </c>
+      <c r="J66" s="1">
+        <f>(J54-C54)/C54</f>
+        <v>7.0441614738553241E-3</v>
+      </c>
+      <c r="K66" s="1">
+        <f>(K54-C54)/C54</f>
+        <v>0.15524248171227309</v>
+      </c>
+      <c r="L66" s="1">
+        <f>(L54-C54)/C54</f>
+        <v>0.27201300460579791</v>
+      </c>
+      <c r="M66" s="1">
+        <f>(M54-C54)/C54</f>
+        <v>8.5209970197778375</v>
+      </c>
+      <c r="N66" s="1">
+        <f>(N54-C54)/C54</f>
+        <v>7.6830127336765104</v>
+      </c>
+      <c r="O66" s="1">
+        <f>(O54-C54)/C54</f>
+        <v>8.3299918721213757</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="12.75">
+      <c r="E67" s="1">
+        <f>(E66*100)/(E56*100)</f>
+        <v>0.13230720261073806</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:O67" si="6">(F66*100)/(F56*100)</f>
+        <v>20.580333908047432</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3964417126076016</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="6"/>
+        <v>0.69087799331369348</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="6"/>
+        <v>0.16768605166049586</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7749291893706564E-2</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7603184228628312</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" si="6"/>
+        <v>9.2521430138026499</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="6"/>
+        <v>570.72987406415518</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="6"/>
+        <v>32012.553056985456</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="6"/>
+        <v>832999.18721213762</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" ht="12.75">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="2:15" ht="12.75">
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="G69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="12.75">
-      <c r="C66" s="1" t="s">
+    <row r="70" spans="2:15" ht="12.75">
+      <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="12.75">
-      <c r="B67" s="2" t="s">
+    <row r="71" spans="2:15" ht="12.75">
+      <c r="B71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="12.75">
-      <c r="B68" s="1" t="s">
+    <row r="72" spans="2:15" ht="12.75">
+      <c r="B72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="12.75">
-      <c r="B69" s="1" t="s">
+    <row r="73" spans="2:15" ht="12.75">
+      <c r="B73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="12.75">
-      <c r="B70" s="1" t="s">
+    <row r="74" spans="2:15" ht="12.75">
+      <c r="B74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="12.75">
-      <c r="B71" s="1" t="s">
+    <row r="75" spans="2:15" ht="12.75">
+      <c r="B75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="12.75">
-      <c r="B72" s="1" t="s">
+    <row r="76" spans="2:15" ht="12.75">
+      <c r="B76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="12.75">
-      <c r="B73" s="1" t="s">
+    <row r="77" spans="2:15" ht="12.75">
+      <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="12.75">
-      <c r="B74" s="1" t="s">
+    <row r="78" spans="2:15" ht="12.75">
+      <c r="B78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="12.75">
-      <c r="B75" s="1" t="s">
+    <row r="79" spans="2:15" ht="12.75">
+      <c r="B79" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="12.75">
-      <c r="B76" s="1" t="s">
+    <row r="80" spans="2:15" ht="12.75">
+      <c r="B80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C80" s="1">
         <v>996477</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <v>389382</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="12.75">
-      <c r="B77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="1">
-        <v>996477</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1">
-        <v>389382</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" customHeight="1">
-      <c r="D78" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="12.75">
-      <c r="B79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <v>4</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="12.75">
-      <c r="B80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="1">
-        <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
@@ -2479,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>6</v>
+        <v>389382</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -2487,10 +2563,10 @@
     </row>
     <row r="81" spans="2:9" ht="12.75">
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1">
-        <v>557</v>
+        <v>996477</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>50</v>
@@ -2505,44 +2581,23 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>1693</v>
+        <v>389382</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="12.75">
-      <c r="B82" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1429</v>
-      </c>
+    <row r="82" spans="2:9" ht="15.75" customHeight="1">
       <c r="D82" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>2801</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="83" spans="2:9" ht="12.75">
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>50</v>
@@ -2557,270 +2612,374 @@
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="2:9" ht="12.75">
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>6</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="12.75">
+      <c r="B85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="1">
+        <v>557</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1693</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="86" spans="2:9" ht="12.75">
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1429</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2801</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="12.75">
+      <c r="B87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="12.75">
+      <c r="B90" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="15" t="e">
-        <f>ROUND((C76-D76)/C76,2)</f>
+      <c r="C90" s="4"/>
+      <c r="D90" s="15" t="e">
+        <f>ROUND((C80-D80)/C80,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E86" s="5">
-        <f>ROUND((C76-E76)/C76,2)</f>
+      <c r="E90" s="5">
+        <f>ROUND((C80-E80)/C80,2)</f>
         <v>1</v>
       </c>
-      <c r="F86" s="5">
-        <f>ROUND((C76-F76)/C76,2)</f>
+      <c r="F90" s="5">
+        <f>ROUND((C80-F80)/C80,2)</f>
         <v>1</v>
       </c>
-      <c r="G86" s="5">
-        <f>ROUND((C76-G76)/C76,2)</f>
+      <c r="G90" s="5">
+        <f>ROUND((C80-G80)/C80,2)</f>
         <v>1</v>
       </c>
-      <c r="H86" s="5">
-        <f>ROUND((C76-H76)/C76,2)</f>
+      <c r="H90" s="5">
+        <f>ROUND((C80-H80)/C80,2)</f>
         <v>0.61</v>
       </c>
-      <c r="I86" s="6">
-        <f>ROUND((C76-I76)/C76,2)</f>
+      <c r="I90" s="6">
+        <f>ROUND((C80-I80)/C80,2)</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="12.75">
-      <c r="B87" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" ht="12.75">
-      <c r="B88" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="2:9" ht="12.75">
-      <c r="B89" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="1" t="e">
-        <f>ROUND((D80-C80)/C80,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="1">
-        <f>ROUND((E80-C80)/C80,2)</f>
-        <v>-1</v>
-      </c>
-      <c r="F89" s="1">
-        <f>ROUND((F80-C80)/C80,2)</f>
-        <v>-1</v>
-      </c>
-      <c r="G89" s="1">
-        <f>ROUND((G80-C80)/C80,2)</f>
-        <v>-1</v>
-      </c>
-      <c r="H89" s="1">
-        <f>ROUND((H80-C80)/C80,2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="I89" s="9">
-        <f>ROUND((I80-C80)/C80,2)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="12.75">
-      <c r="B90" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="1" t="e">
-        <f>ROUND((D81-C81)/C81,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E90" s="1">
-        <f>ROUND((E81-C81)/C81,2)</f>
-        <v>-1</v>
-      </c>
-      <c r="F90" s="1">
-        <f>ROUND((F81-C81)/C81,2)</f>
-        <v>-1</v>
-      </c>
-      <c r="G90" s="1">
-        <f>ROUND((G81-C81)/C81,2)</f>
-        <v>-1</v>
-      </c>
-      <c r="H90" s="1">
-        <f>ROUND((H81-C81)/C81,2)</f>
-        <v>2.04</v>
-      </c>
-      <c r="I90" s="9">
-        <f>ROUND((I81-C81)/C81,2)</f>
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="12.75">
       <c r="B91" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="2:9" ht="12.75">
+      <c r="B92" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="2:9" ht="12.75">
+      <c r="B93" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="1" t="e">
+        <f>ROUND((D84-C84)/C84,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E93" s="1">
+        <f>ROUND((E84-C84)/C84,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="F93" s="1">
+        <f>ROUND((F84-C84)/C84,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G93" s="1">
+        <f>ROUND((G84-C84)/C84,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="H93" s="1">
+        <f>ROUND((H84-C84)/C84,2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I93" s="9">
+        <f>ROUND((I84-C84)/C84,2)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="12.75">
+      <c r="B94" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="1" t="e">
+        <f>ROUND((D85-C85)/C85,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E94" s="1">
+        <f>ROUND((E85-C85)/C85,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="F94" s="1">
+        <f>ROUND((F85-C85)/C85,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G94" s="1">
+        <f>ROUND((G85-C85)/C85,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="H94" s="1">
+        <f>ROUND((H85-C85)/C85,2)</f>
+        <v>2.04</v>
+      </c>
+      <c r="I94" s="9">
+        <f>ROUND((I85-C85)/C85,2)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="12.75">
+      <c r="B95" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="1" t="e">
-        <f>ROUND((D82-C82)/C82,2)</f>
+      <c r="C95" s="8"/>
+      <c r="D95" s="1" t="e">
+        <f>ROUND((D86-C86)/C86,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E91" s="1">
-        <f>ROUND((E82-C82)/C82,2)</f>
+      <c r="E95" s="1">
+        <f>ROUND((E86-C86)/C86,2)</f>
         <v>-1</v>
       </c>
-      <c r="F91" s="1">
-        <f>ROUND((F82-C82)/C82,2)</f>
+      <c r="F95" s="1">
+        <f>ROUND((F86-C86)/C86,2)</f>
         <v>-1</v>
       </c>
-      <c r="G91" s="1">
-        <f>ROUND((G82-C82)/C82,2)</f>
+      <c r="G95" s="1">
+        <f>ROUND((G86-C86)/C86,2)</f>
         <v>-1</v>
       </c>
-      <c r="H91" s="1">
-        <f>ROUND((H82-C82)/C82,2)</f>
+      <c r="H95" s="1">
+        <f>ROUND((H86-C86)/C86,2)</f>
         <v>0.96</v>
       </c>
-      <c r="I91" s="9">
-        <f>ROUND((I82-C82)/C82,2)</f>
+      <c r="I95" s="9">
+        <f>ROUND((I86-C86)/C86,2)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="12.75">
-      <c r="B92" s="17" t="s">
+    <row r="96" spans="2:9" ht="12.75">
+      <c r="B96" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="13"/>
-    </row>
-    <row r="136" spans="2:7" ht="12.75">
-      <c r="G136" s="1" t="s">
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="140" spans="2:7" ht="12.75">
+      <c r="G140" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="12.75">
-      <c r="B137" s="2" t="s">
+    <row r="141" spans="2:7" ht="12.75">
+      <c r="B141" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" ht="12.75">
-      <c r="B138" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" ht="12.75">
-      <c r="B139" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" ht="12.75">
-      <c r="B140" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" ht="12.75">
-      <c r="B141" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="12.75">
       <c r="B142" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="12.75">
       <c r="B143" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="12.75">
       <c r="B144" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="12.75">
       <c r="B145" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="12.75">
       <c r="B146" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="12.75">
       <c r="B147" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="12.75">
+      <c r="B148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="12.75">
       <c r="B149" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="12.75">
       <c r="B150" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" s="1">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="12.75">
       <c r="B151" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" ht="12.75">
-      <c r="B152" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="12.75">
       <c r="B153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="12.75">
+      <c r="B154" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G154" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="12.75">
+      <c r="B155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="12.75">
+      <c r="B156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" ht="12.75">
+      <c r="B157" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G157" s="1">
         <v>0</v>
       </c>
     </row>
